--- a/Excel Part-1 (Trainer-188).xlsx
+++ b/Excel Part-1 (Trainer-188).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Business Analyst\USA BA 188\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1211478-633C-48CA-8A8F-401DCA407AEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E5BA0C-8CD3-4DDC-9D80-4D52F47EB161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="728" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
